--- a/HumanResources.Web/wwwroot/uploads/حضور وانصراف (1).xlsx
+++ b/HumanResources.Web/wwwroot/uploads/حضور وانصراف (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC788D0-D6DA-4863-B371-F951704B170B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B672F644-2F43-431C-B0C5-CF5E3C823108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,7 +353,7 @@
   <dimension ref="A1:F455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
